--- a/maqueta_pin_TEST.xlsx
+++ b/maqueta_pin_TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2325" windowWidth="26775" windowHeight="14880"/>
+    <workbookView xWindow="4215" yWindow="2325" windowWidth="26775" windowHeight="14880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>PIN:</t>
   </si>
   <si>
-    <t>PIN VALIDO PARA LA TEMPORADA 2020</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>PIN VALIDO PARA LA TEMPORADA 2021</t>
   </si>
 </sst>
 </file>
@@ -301,14 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -635,13 +635,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="17"/>
@@ -655,13 +655,13 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="17"/>
@@ -675,13 +675,13 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="17"/>
@@ -695,13 +695,13 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="17"/>
@@ -715,13 +715,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="17"/>
@@ -735,13 +735,13 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="17"/>
@@ -755,13 +755,13 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="17"/>
@@ -775,13 +775,13 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="17"/>
@@ -795,13 +795,13 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="17"/>
@@ -815,13 +815,13 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="18"/>
@@ -835,13 +835,13 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="17"/>
@@ -855,13 +855,13 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="17"/>
@@ -875,13 +875,13 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="18"/>
@@ -895,13 +895,13 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="17"/>
@@ -915,13 +915,13 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="17"/>
@@ -935,13 +935,13 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="18"/>
@@ -955,13 +955,13 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="17"/>
@@ -975,13 +975,13 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="17"/>
@@ -995,13 +995,13 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="17"/>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="17"/>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="17"/>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="17"/>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="17"/>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="17"/>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="17"/>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="18"/>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="17"/>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="17"/>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="17"/>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="18"/>
@@ -1237,7 +1237,7 @@
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="18"/>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -6212,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:H50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6247,21 +6247,21 @@
       <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="28" t="str">
         <f>Base!B32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="D2" s="26" t="str">
+      <c r="B2" s="28"/>
+      <c r="D2" s="28" t="str">
         <f>Base!B32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="G2" s="26" t="str">
+      <c r="E2" s="28"/>
+      <c r="G2" s="28" t="str">
         <f>Base!B32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -6312,18 +6312,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="D5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="G5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="28"/>
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="G5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="str">
@@ -6343,21 +6343,21 @@
       <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="str">
+      <c r="A7" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="D7" s="26" t="str">
+      <c r="B7" s="28"/>
+      <c r="D7" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="26" t="str">
+      <c r="E7" s="28"/>
+      <c r="G7" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -6408,18 +6408,18 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="D10" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="G10" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28"/>
+      <c r="A10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="D10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="str">
@@ -6439,21 +6439,21 @@
       <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="str">
+      <c r="A12" s="28" t="str">
         <f>Maqueta!A7</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="D12" s="26" t="str">
+      <c r="B12" s="28"/>
+      <c r="D12" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="G12" s="26" t="str">
+      <c r="E12" s="28"/>
+      <c r="G12" s="28" t="str">
         <f>Base!B32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -6504,18 +6504,18 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="D15" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="G15" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="28"/>
+      <c r="A15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="G15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="str">
@@ -6535,21 +6535,21 @@
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="str">
+      <c r="A17" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="D17" s="26" t="str">
+      <c r="B17" s="28"/>
+      <c r="D17" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="G17" s="26" t="str">
+      <c r="E17" s="28"/>
+      <c r="G17" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -6600,18 +6600,18 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="G20" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="A20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="G20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="str">
@@ -6631,21 +6631,21 @@
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="str">
+      <c r="A22" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="D22" s="26" t="str">
+      <c r="B22" s="28"/>
+      <c r="D22" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="G22" s="26" t="str">
+      <c r="E22" s="28"/>
+      <c r="G22" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6696,18 +6696,18 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="D25" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="G25" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="28"/>
+      <c r="A25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="G25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="26"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
@@ -6728,21 +6728,21 @@
       <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="str">
+      <c r="A27" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="D27" s="26" t="str">
+      <c r="B27" s="28"/>
+      <c r="D27" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="G27" s="26" t="str">
+      <c r="E27" s="28"/>
+      <c r="G27" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:13" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -6793,18 +6793,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="D30" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="G30" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="28"/>
+      <c r="A30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="D30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="str">
@@ -6824,21 +6824,21 @@
       <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="str">
+      <c r="A32" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="D32" s="26" t="str">
+      <c r="B32" s="28"/>
+      <c r="D32" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="G32" s="26" t="str">
+      <c r="E32" s="28"/>
+      <c r="G32" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H32" s="26"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -6889,18 +6889,18 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="D35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="G35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="28"/>
+      <c r="A35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="D35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="G35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="str">
@@ -6920,21 +6920,21 @@
       <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="str">
+      <c r="A37" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="D37" s="26" t="str">
+      <c r="B37" s="28"/>
+      <c r="D37" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="G37" s="26" t="str">
+      <c r="E37" s="28"/>
+      <c r="G37" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -6985,18 +6985,18 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="D40" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="G40" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="28"/>
+      <c r="A40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="D40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="G40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="str">
@@ -7016,21 +7016,21 @@
       <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="str">
+      <c r="A42" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="D42" s="26" t="str">
+      <c r="B42" s="28"/>
+      <c r="D42" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="G42" s="26" t="str">
+      <c r="E42" s="28"/>
+      <c r="G42" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H42" s="26"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -7081,18 +7081,18 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="D45" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="G45" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="28"/>
+      <c r="A45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="G45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="str">
@@ -7112,21 +7112,21 @@
       <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="str">
+      <c r="A47" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="D47" s="26" t="str">
+      <c r="B47" s="28"/>
+      <c r="D47" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="G47" s="26" t="str">
+      <c r="E47" s="28"/>
+      <c r="G47" s="28" t="str">
         <f>Base!B$32</f>
         <v>GIMNASIO IBEROAMERICANO (2020)</v>
       </c>
-      <c r="H47" s="26"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -7177,21 +7177,95 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="D50" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="G50" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="28"/>
+      <c r="A50" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="G50" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="G50:H50"/>
@@ -7208,80 +7282,6 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
